--- a/duplicates.xlsx
+++ b/duplicates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manat\OneDrive\Documents\Tim\MIDS\241_Experiments\241_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B02075-85AB-4AC1-9AE9-64EC763B1086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F5C984-A662-4BC5-8A7C-76B78628FB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4EBA48A5-51BD-4CB6-BC18-FC7CED97A95C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4EBA48A5-51BD-4CB6-BC18-FC7CED97A95C}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA7AE61-51EF-47FE-85BE-95C92FE48560}">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -4707,11 +4707,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE553C8-2C71-4F97-BBB9-9F4454DCF99E}">
   <dimension ref="A1:BL11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U3:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="61" max="61" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
